--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-14878-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-14878-top-by-races-count.xlsx
@@ -50,7 +50,7 @@
     <t>паукан</t>
   </si>
   <si>
-    <t>86 ч. 16 мин. 9 сек.</t>
+    <t>86 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -68,7 +68,7 @@
     <t>vlad200</t>
   </si>
   <si>
-    <t>133 ч. 29 мин. 5 сек.</t>
+    <t>133 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -113,7 +113,7 @@
     <t>MaestroPain</t>
   </si>
   <si>
-    <t>28 ч. 4 мин. 11 сек.</t>
+    <t>28 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -131,7 +131,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>25 ч. 23 мин. 9 сек.</t>
+    <t>25 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -149,7 +149,7 @@
     <t>Feliks_Smetana</t>
   </si>
   <si>
-    <t>21 ч. 8 мин. 10 сек.</t>
+    <t>21 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -158,7 +158,7 @@
     <t>VladimirFvR</t>
   </si>
   <si>
-    <t>39 ч. 7 мин. 16 сек.</t>
+    <t>39 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -167,7 +167,7 @@
     <t>fivestar</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 21 сек.</t>
+    <t>9 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -185,7 +185,7 @@
     <t>Awyra</t>
   </si>
   <si>
-    <t>19 ч. 52 мин. 6 сек.</t>
+    <t>19 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -266,7 +266,7 @@
     <t>JohnStone</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 17 сек.</t>
+    <t>17 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>26</t>
@@ -284,7 +284,7 @@
     <t>MarionWed</t>
   </si>
   <si>
-    <t>20 ч. 6 мин. 55 сек.</t>
+    <t>20 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -302,7 +302,7 @@
     <t>Gal04ka</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 6 сек.</t>
+    <t>11 ч. 02 мин. 06 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -356,7 +356,7 @@
     <t>Phemmer</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 9 сек.</t>
+    <t>11 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -374,7 +374,7 @@
     <t>170000</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 27 сек.</t>
+    <t>9 ч. 06 мин. 27 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -428,7 +428,7 @@
     <t>Satory</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 25 сек.</t>
+    <t>11 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -482,7 +482,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>20 ч. 1 мин. 5 сек.</t>
+    <t>20 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -599,7 +599,7 @@
     <t>inteltone</t>
   </si>
   <si>
-    <t>11 ч. 30 мин. 3 сек.</t>
+    <t>11 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -644,7 +644,7 @@
     <t>Обгоняша</t>
   </si>
   <si>
-    <t>8 ч. 24 мин. 4 сек.</t>
+    <t>8 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>68</t>
@@ -653,7 +653,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>5 ч. 29 мин. 7 сек.</t>
+    <t>5 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -662,7 +662,7 @@
     <t>Хаотический</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 34 сек.</t>
+    <t>12 ч. 08 мин. 34 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -671,7 +671,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 14 сек.</t>
+    <t>8 ч. 02 мин. 14 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -680,7 +680,7 @@
     <t>akaJackson</t>
   </si>
   <si>
-    <t>7 ч. 39 мин. 5 сек.</t>
+    <t>7 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -698,13 +698,13 @@
     <t>molot-perm</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 52 сек.</t>
+    <t>6 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>Glavredzlovred</t>
   </si>
   <si>
-    <t>6 ч. 43 мин. 0 сек.</t>
+    <t>6 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -740,7 +740,7 @@
     <t>learnToType</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 10 сек.</t>
+    <t>13 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>79–81</t>
@@ -755,13 +755,13 @@
     <t>POSIX</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 7 сек.</t>
+    <t>9 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>vl7</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 37 сек.</t>
+    <t>12 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -779,7 +779,7 @@
     <t>yurgen55</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 4 сек.</t>
+    <t>10 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -833,7 +833,7 @@
     <t>moonwwwind</t>
   </si>
   <si>
-    <t>7 ч. 12 мин. 5 сек.</t>
+    <t>7 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -851,7 +851,7 @@
     <t>Андруша</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 4 сек.</t>
+    <t>8 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>92</t>
@@ -869,7 +869,7 @@
     <t>pik7gbv</t>
   </si>
   <si>
-    <t>6 ч. 43 мин. 2 сек.</t>
+    <t>6 ч. 43 мин. 02 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -878,7 +878,7 @@
     <t>pche1</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 43 сек.</t>
+    <t>5 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>95</t>
@@ -905,7 +905,7 @@
     <t>Enrage</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 9 сек.</t>
+    <t>5 ч. 10 мин. 09 сек.</t>
   </si>
   <si>
     <t>98</t>
@@ -914,7 +914,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 1 сек.</t>
+    <t>6 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>99</t>
@@ -932,7 +932,7 @@
     <t>Joumii</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 47 сек.</t>
+    <t>7 ч. 09 мин. 47 сек.</t>
   </si>
   <si>
     <t>101</t>
@@ -950,7 +950,7 @@
     <t>Хуля</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 43 сек.</t>
+    <t>10 ч. 04 мин. 43 сек.</t>
   </si>
   <si>
     <t>xdg-</t>
@@ -974,7 +974,7 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 19 сек.</t>
+    <t>5 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>106</t>
@@ -1001,7 +1001,7 @@
     <t>Asp1ro_</t>
   </si>
   <si>
-    <t>10 ч. 26 мин. 8 сек.</t>
+    <t>10 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -1055,7 +1055,7 @@
     <t>barmaglot</t>
   </si>
   <si>
-    <t>10 ч. 57 мин. 4 сек.</t>
+    <t>10 ч. 57 мин. 04 сек.</t>
   </si>
   <si>
     <t>115</t>
@@ -1073,7 +1073,7 @@
     <t>haos2100</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 51 сек.</t>
+    <t>4 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>117–119</t>
@@ -1088,7 +1088,7 @@
     <t>Voldik</t>
   </si>
   <si>
-    <t>7 ч. 29 мин. 0 сек.</t>
+    <t>7 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>olimo</t>
@@ -1103,7 +1103,7 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>4 ч. 35 мин. 8 сек.</t>
+    <t>4 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1112,7 +1112,7 @@
     <t>Iterator</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 43 сек.</t>
+    <t>5 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>122–123</t>
@@ -1160,7 +1160,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 38 сек.</t>
+    <t>5 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1178,7 +1178,7 @@
     <t>MrSir</t>
   </si>
   <si>
-    <t>4 ч. 47 мин. 5 сек.</t>
+    <t>4 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>130</t>
@@ -1259,7 +1259,7 @@
     <t>juls3n</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 20 сек.</t>
+    <t>13 ч. 02 мин. 20 сек.</t>
   </si>
   <si>
     <t>139</t>
@@ -1277,7 +1277,7 @@
     <t>IvanProskura</t>
   </si>
   <si>
-    <t>5 ч. 14 мин. 5 сек.</t>
+    <t>5 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>141</t>
@@ -1286,7 +1286,7 @@
     <t>mdnf</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 34 сек.</t>
+    <t>3 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1340,7 +1340,7 @@
     <t>Nowhereman42nd</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 6 сек.</t>
+    <t>4 ч. 11 мин. 06 сек.</t>
   </si>
   <si>
     <t>148</t>
@@ -1394,7 +1394,7 @@
     <t>dertru</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 9 сек.</t>
+    <t>4 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>154</t>
@@ -1421,7 +1421,7 @@
     <t>exektc</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 39 сек.</t>
+    <t>7 ч. 01 мин. 39 сек.</t>
   </si>
   <si>
     <t>157</t>
@@ -1469,13 +1469,13 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 2 сек.</t>
+    <t>3 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>Виталька</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 5 сек.</t>
+    <t>2 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>164–165</t>
@@ -1499,7 +1499,7 @@
     <t>Рюша</t>
   </si>
   <si>
-    <t>9 ч. 46 мин. 1 сек.</t>
+    <t>9 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>167–168</t>
@@ -1514,7 +1514,7 @@
     <t>ZUN</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 1 сек.</t>
+    <t>5 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1550,7 +1550,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 21 сек.</t>
+    <t>8 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>Insane_Grinder</t>
@@ -1565,7 +1565,7 @@
     <t>saben_askhat</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 12 сек.</t>
+    <t>3 ч. 05 мин. 12 сек.</t>
   </si>
   <si>
     <t>bahrom</t>
@@ -1580,7 +1580,7 @@
     <t>Levileipheimer</t>
   </si>
   <si>
-    <t>3 ч. 52 мин. 4 сек.</t>
+    <t>3 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>177</t>
@@ -1616,7 +1616,7 @@
     <t>hangling</t>
   </si>
   <si>
-    <t>7 ч. 53 мин. 6 сек.</t>
+    <t>7 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1652,7 +1652,7 @@
     <t>M87</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 5 сек.</t>
+    <t>2 ч. 07 мин. 05 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1742,7 +1742,7 @@
     <t>iBumble</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 26 сек.</t>
+    <t>4 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>195</t>
@@ -1787,7 +1787,7 @@
     <t>nick1m</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 8 сек.</t>
+    <t>5 ч. 06 мин. 08 сек.</t>
   </si>
   <si>
     <t>200</t>
@@ -1796,7 +1796,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 8 сек.</t>
+    <t>3 ч. 55 мин. 08 сек.</t>
   </si>
   <si>
     <t>201–202</t>
@@ -1820,7 +1820,7 @@
     <t>fatuous</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 3 сек.</t>
+    <t>1 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>ArtHare</t>
@@ -1850,7 +1850,7 @@
     <t>s0lnyshk0</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 54 сек.</t>
+    <t>2 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>208</t>
@@ -1859,7 +1859,7 @@
     <t>Mirion</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 4 сек.</t>
+    <t>4 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>209</t>
@@ -1868,7 +1868,7 @@
     <t>strix_qb</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 8 сек.</t>
+    <t>2 ч. 11 мин. 08 сек.</t>
   </si>
   <si>
     <t>210–211</t>
@@ -1907,7 +1907,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 58 сек.</t>
+    <t>2 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>215</t>
@@ -1916,7 +1916,7 @@
     <t>bulatenkom</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 1 сек.</t>
+    <t>3 ч. 23 мин. 01 сек.</t>
   </si>
   <si>
     <t>216–218</t>
@@ -1973,7 +1973,7 @@
     <t>отлезь_вова</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 47 сек.</t>
+    <t>5 ч. 07 мин. 47 сек.</t>
   </si>
   <si>
     <t>223</t>
@@ -2033,7 +2033,7 @@
     <t>я_араб</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 11 сек.</t>
+    <t>3 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>230</t>
@@ -2042,7 +2042,7 @@
     <t>mavru</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 57 сек.</t>
+    <t>2 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>231</t>
@@ -2060,7 +2060,7 @@
     <t>chievo</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 20 сек.</t>
+    <t>3 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>233</t>
@@ -2096,7 +2096,7 @@
     <t>VisaryMaster</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 33 сек.</t>
+    <t>3 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -2114,7 +2114,7 @@
     <t>нуммулит</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 5 сек.</t>
+    <t>4 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>239–240</t>
@@ -2123,7 +2123,7 @@
     <t>yapoehal</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 2 сек.</t>
+    <t>5 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>BogdanK</t>
@@ -2138,7 +2138,7 @@
     <t>prestor-jon</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 44 сек.</t>
+    <t>5 ч. 06 мин. 44 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2147,7 +2147,7 @@
     <t>Kml</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 6 сек.</t>
+    <t>2 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>243–244</t>
@@ -2156,7 +2156,7 @@
     <t>NightKlirik</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 8 сек.</t>
+    <t>2 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>AHTOH</t>
@@ -2210,7 +2210,7 @@
     <t>Аурика</t>
   </si>
   <si>
-    <t>5 ч. 53 мин. 2 сек.</t>
+    <t>5 ч. 53 мин. 02 сек.</t>
   </si>
   <si>
     <t>251–252</t>
@@ -2252,7 +2252,7 @@
     <t>8788</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 41 сек.</t>
+    <t>4 ч. 05 мин. 41 сек.</t>
   </si>
   <si>
     <t>256–257</t>
@@ -2276,7 +2276,7 @@
     <t>iChessKnock</t>
   </si>
   <si>
-    <t>3 ч. 14 мин. 3 сек.</t>
+    <t>3 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>Asted</t>
@@ -2324,7 +2324,7 @@
     <t>Декарт</t>
   </si>
   <si>
-    <t>3 ч. 44 мин. 0 сек.</t>
+    <t>3 ч. 44 мин. 00 сек.</t>
   </si>
   <si>
     <t>265</t>
@@ -2429,7 +2429,7 @@
     <t>smbody</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>3 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>277</t>
@@ -2462,7 +2462,7 @@
     <t>sashavirtual</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 3 сек.</t>
+    <t>1 ч. 31 мин. 03 сек.</t>
   </si>
   <si>
     <t>Наконец-то</t>
@@ -2483,7 +2483,7 @@
     <t>Noel</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 11 сек.</t>
+    <t>2 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>284</t>
@@ -2519,7 +2519,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 43 сек.</t>
+    <t>3 ч. 06 мин. 43 сек.</t>
   </si>
   <si>
     <t>glama</t>
@@ -2534,7 +2534,7 @@
     <t>PROcent</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 40 сек.</t>
+    <t>2 ч. 05 мин. 40 сек.</t>
   </si>
   <si>
     <t>290–291</t>
@@ -2543,7 +2543,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 24 сек.</t>
+    <t>2 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>novkostya</t>
@@ -2567,7 +2567,7 @@
     <t>lovermann</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 26 сек.</t>
+    <t>2 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>294</t>
@@ -2576,7 +2576,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 0 сек.</t>
+    <t>1 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>295–297</t>
@@ -2612,7 +2612,7 @@
     <t>Uraniadz</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 22 сек.</t>
+    <t>2 ч. 05 мин. 22 сек.</t>
   </si>
   <si>
     <t>300–302</t>
@@ -2627,7 +2627,7 @@
     <t>Кадий</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 38 сек.</t>
+    <t>2 ч. 06 мин. 38 сек.</t>
   </si>
   <si>
     <t>XYAH</t>
@@ -2672,13 +2672,13 @@
     <t>-santiago-</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 6 сек.</t>
+    <t>3 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 14 сек.</t>
+    <t>2 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>309</t>
@@ -2741,7 +2741,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 4 сек.</t>
+    <t>2 ч. 07 мин. 04 сек.</t>
   </si>
   <si>
     <t>317–318</t>
@@ -2765,7 +2765,7 @@
     <t>puchkarito</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 6 сек.</t>
+    <t>1 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>320</t>
@@ -2783,7 +2783,7 @@
     <t>spawn_once</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 0 сек.</t>
+    <t>1 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>Coyote12</t>
@@ -2870,7 +2870,7 @@
     <t>tumanov2012</t>
   </si>
   <si>
-    <t>4 ч. 50 мин. 8 сек.</t>
+    <t>4 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>333–334</t>
@@ -2918,7 +2918,7 @@
     <t>trilus</t>
   </si>
   <si>
-    <t>5 ч. 55 мин. 5 сек.</t>
+    <t>5 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>339</t>
@@ -2966,7 +2966,7 @@
     <t>Экстравагантный</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 8 сек.</t>
+    <t>1 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>345</t>
@@ -2975,7 +2975,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 9 сек.</t>
+    <t>2 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>346–348</t>
@@ -2990,7 +2990,7 @@
     <t>Chame</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 49 сек.</t>
+    <t>2 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>iWheelBuy</t>
@@ -3020,7 +3020,7 @@
     <t>Nitro8715</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 41 сек.</t>
+    <t>4 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>352</t>
@@ -3065,13 +3065,13 @@
     <t>ITur</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 15 сек.</t>
+    <t>2 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>dbz</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 23 сек.</t>
+    <t>2 ч. 07 мин. 23 сек.</t>
   </si>
   <si>
     <t>Всего_хорошего</t>
@@ -3083,7 +3083,7 @@
     <t>безтормозов</t>
   </si>
   <si>
-    <t>5 ч. 23 мин. 8 сек.</t>
+    <t>5 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>361</t>
@@ -3092,7 +3092,7 @@
     <t>system_error</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 6 сек.</t>
+    <t>1 ч. 25 мин. 06 сек.</t>
   </si>
   <si>
     <t>362–363</t>
@@ -3101,7 +3101,7 @@
     <t>бэтман</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 47 сек.</t>
+    <t>2 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>nikioa</t>
@@ -3116,7 +3116,7 @@
     <t>Alhimik_ua</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 32 сек.</t>
+    <t>4 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>365</t>
@@ -3149,7 +3149,7 @@
     <t>Going</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 5 сек.</t>
+    <t>3 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>369–371</t>
@@ -3179,7 +3179,7 @@
     <t>Толик_Цой</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 1 сек.</t>
+    <t>1 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>373</t>
@@ -3203,7 +3203,7 @@
     <t>deadmage</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 6 сек.</t>
+    <t>1 ч. 34 мин. 06 сек.</t>
   </si>
   <si>
     <t>376–377</t>
@@ -3218,7 +3218,7 @@
     <t>cybrg</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 28 сек.</t>
+    <t>3 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>378</t>
@@ -3242,7 +3242,7 @@
     <t>Пилле-Рийн</t>
   </si>
   <si>
-    <t>4 ч. 27 мин. 4 сек.</t>
+    <t>4 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>еаеа</t>
@@ -3272,7 +3272,7 @@
     <t>sourses</t>
   </si>
   <si>
-    <t>6 ч. 44 мин. 6 сек.</t>
+    <t>6 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>conway</t>
@@ -3287,7 +3287,7 @@
     <t>lep</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 13 сек.</t>
+    <t>2 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>387–388</t>
@@ -3335,7 +3335,7 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 6 сек.</t>
+    <t>2 ч. 33 мин. 06 сек.</t>
   </si>
   <si>
     <t>393</t>
@@ -3344,7 +3344,7 @@
     <t>Red_Sky</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 21 сек.</t>
+    <t>4 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>394–395</t>
@@ -3377,7 +3377,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 7 сек.</t>
+    <t>1 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>398–399</t>
@@ -3401,7 +3401,7 @@
     <t>TARDIS</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 49 сек.</t>
+    <t>3 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>Игра_слов</t>
@@ -3416,7 +3416,7 @@
     <t>lxndrdnlv</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 0 сек.</t>
+    <t>1 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>5mooTh</t>
@@ -3440,7 +3440,7 @@
     <t>nadia_myronuk</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 9 сек.</t>
+    <t>3 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>katrinakap</t>
@@ -3485,7 +3485,7 @@
     <t>murtag</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 1 сек.</t>
+    <t>5 ч. 04 мин. 01 сек.</t>
   </si>
   <si>
     <t>Shomka5</t>
@@ -3515,7 +3515,7 @@
     <t>qwertrewq</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 9 сек.</t>
+    <t>1 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>slowdown</t>
@@ -3560,7 +3560,7 @@
     <t>14bas14</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 42 сек.</t>
+    <t>3 ч. 05 мин. 42 сек.</t>
   </si>
   <si>
     <t>вовик58</t>
@@ -3581,7 +3581,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 8 сек.</t>
+    <t>2 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>425</t>
@@ -3617,7 +3617,7 @@
     <t>Фаст</t>
   </si>
   <si>
-    <t>1 ч. 44 мин. 5 сек.</t>
+    <t>1 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>430–433</t>
@@ -3626,7 +3626,7 @@
     <t>fedyagor</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 5 сек.</t>
+    <t>2 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>anclaw</t>
@@ -3644,7 +3644,7 @@
     <t>Zerstoren</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 4 сек.</t>
+    <t>2 ч. 19 мин. 04 сек.</t>
   </si>
   <si>
     <t>434–436</t>
@@ -3665,7 +3665,7 @@
     <t>Disobey</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 8 сек.</t>
+    <t>1 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>437</t>
@@ -3683,19 +3683,19 @@
     <t>KikiJiki85</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 17 сек.</t>
+    <t>2 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>vei</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 11 сек.</t>
+    <t>1 ч. 01 мин. 11 сек.</t>
   </si>
   <si>
     <t>sav1</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 8 сек.</t>
+    <t>1 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>441–442</t>
@@ -3704,7 +3704,7 @@
     <t>tfn3k</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 5 сек.</t>
+    <t>3 ч. 02 мин. 05 сек.</t>
   </si>
   <si>
     <t>Mister_Finka</t>
@@ -3725,13 +3725,13 @@
     <t>oyasumi</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 8 сек.</t>
+    <t>1 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>SamArKin</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 25 сек.</t>
+    <t>3 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>446</t>
@@ -3755,13 +3755,13 @@
     <t>Denzilman</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 13 сек.</t>
+    <t>1 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>Mellow</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 32 сек.</t>
+    <t>1 ч. 04 мин. 32 сек.</t>
   </si>
   <si>
     <t>450–451</t>
@@ -3785,7 +3785,7 @@
     <t>самурай_47_</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 4 сек.</t>
+    <t>2 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>453–455</t>
@@ -3800,7 +3800,7 @@
     <t>Rsay</t>
   </si>
   <si>
-    <t>4 ч. 26 мин. 1 сек.</t>
+    <t>4 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>Lena-51</t>
@@ -3815,7 +3815,7 @@
     <t>Just</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 1 сек.</t>
+    <t>1 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>457</t>
@@ -3824,7 +3824,7 @@
     <t>DvoraQwer</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 8 сек.</t>
+    <t>2 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>458</t>
@@ -3833,7 +3833,7 @@
     <t>Ллисса</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 43 сек.</t>
+    <t>4 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>459–460</t>
@@ -3842,7 +3842,7 @@
     <t>Desser</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 54 сек.</t>
+    <t>1 ч. 09 мин. 54 сек.</t>
   </si>
   <si>
     <t>Muwka_C_CeBePa</t>
@@ -3863,7 +3863,7 @@
     <t>CyrCyr</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 4 сек.</t>
+    <t>2 ч. 05 мин. 04 сек.</t>
   </si>
   <si>
     <t>TibiNu</t>
@@ -3884,7 +3884,7 @@
     <t>_Ayrat_</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 8 сек.</t>
+    <t>1 ч. 40 мин. 08 сек.</t>
   </si>
   <si>
     <t>maksili</t>
@@ -3896,7 +3896,7 @@
     <t>coolgrave</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 1 сек.</t>
+    <t>1 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>Umunty</t>
@@ -3908,19 +3908,19 @@
     <t>vitazik</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 3 сек.</t>
+    <t>2 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>padfoot</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 3 сек.</t>
+    <t>3 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>Etoneja</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 42 сек.</t>
+    <t>1 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>gosknyaz</t>
@@ -3932,7 +3932,7 @@
     <t>Странник</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 19 сек.</t>
+    <t>2 ч. 09 мин. 19 сек.</t>
   </si>
   <si>
     <t>474</t>
@@ -3950,7 +3950,7 @@
     <t>andech</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 9 сек.</t>
+    <t>1 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>476</t>
@@ -3998,7 +3998,7 @@
     <t>masque_otrd</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 17 сек.</t>
+    <t>3 ч. 08 мин. 17 сек.</t>
   </si>
   <si>
     <t>Oxanette</t>
@@ -4013,7 +4013,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 28 сек.</t>
+    <t>1 ч. 05 мин. 28 сек.</t>
   </si>
   <si>
     <t>484–486</t>
@@ -4034,7 +4034,7 @@
     <t>Klume</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 29 сек.</t>
+    <t>2 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>487–488</t>
@@ -4076,7 +4076,7 @@
     <t>sovofeel</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 44 сек.</t>
+    <t>3 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>492–493</t>
@@ -4085,13 +4085,13 @@
     <t>-insOMnia-</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 0 сек.</t>
+    <t>1 ч. 59 мин. 00 сек.</t>
   </si>
   <si>
     <t>ГОЧА</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 1 сек.</t>
+    <t>2 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>494–495</t>
@@ -4106,7 +4106,7 @@
     <t>cross1313</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 3 сек.</t>
+    <t>3 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4160,7 +4160,7 @@
     <t>maikttt</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 4 сек.</t>
+    <t>2 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>503</t>
@@ -4184,7 +4184,7 @@
     <t>Ludimagister</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 56 сек.</t>
+    <t>1 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>506–507</t>
@@ -4244,7 +4244,7 @@
     <t>Eyeless</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 0 сек.</t>
+    <t>2 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>514–515</t>
@@ -4253,13 +4253,13 @@
     <t>RasulHacker</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 17 сек.</t>
+    <t>3 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>JamesPenny</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 7 сек.</t>
+    <t>2 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>516</t>
@@ -4280,7 +4280,7 @@
     <t>qqaezz</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 40 сек.</t>
+    <t>3 ч. 05 мин. 40 сек.</t>
   </si>
   <si>
     <t>rar17</t>
@@ -4313,7 +4313,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 56 сек.</t>
+    <t>1 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>524</t>
@@ -4337,7 +4337,7 @@
     <t>NK7</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 52 сек.</t>
+    <t>2 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>forbatyr</t>
@@ -4352,13 +4352,13 @@
     <t>Arimusya</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 54 сек.</t>
+    <t>1 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>730sm</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 0 сек.</t>
+    <t>2 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>530</t>
@@ -4367,7 +4367,7 @@
     <t>EclipseJDK</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 6 сек.</t>
+    <t>1 ч. 33 мин. 06 сек.</t>
   </si>
   <si>
     <t>531–532</t>
@@ -4397,7 +4397,7 @@
     <t>droom</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 33 сек.</t>
+    <t>1 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>535–537</t>
@@ -4406,7 +4406,7 @@
     <t>WellMaxT</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 4 сек.</t>
+    <t>1 ч. 23 мин. 04 сек.</t>
   </si>
   <si>
     <t>topkek</t>
@@ -4442,13 +4442,13 @@
     <t>Ladimir</t>
   </si>
   <si>
-    <t>1 ч. 58 мин. 6 сек.</t>
+    <t>1 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>флибустьер</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 6 сек.</t>
+    <t>2 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>542–545</t>
@@ -4457,7 +4457,7 @@
     <t>Bhiopk</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 21 сек.</t>
+    <t>1 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>aka-mother</t>
@@ -4475,7 +4475,7 @@
     <t>Fenex</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 52 сек.</t>
+    <t>1 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>546–547</t>
@@ -4484,7 +4484,7 @@
     <t>http</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 4 сек.</t>
+    <t>1 ч. 06 мин. 04 сек.</t>
   </si>
   <si>
     <t>Serhio97</t>
@@ -4529,7 +4529,7 @@
     <t>eowyn_eorling</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 7 сек.</t>
+    <t>1 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>553–555</t>
@@ -4538,7 +4538,7 @@
     <t>Alli-Shi</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 36 сек.</t>
+    <t>1 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>Торописька</t>
@@ -4550,7 +4550,7 @@
     <t>RODIS</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 5 сек.</t>
+    <t>1 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>556</t>
@@ -4559,7 +4559,7 @@
     <t>4bia</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 6 сек.</t>
+    <t>0 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>557–559</t>
@@ -4574,7 +4574,7 @@
     <t>exdark</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 10 сек.</t>
+    <t>1 ч. 02 мин. 10 сек.</t>
   </si>
   <si>
     <t>-Жу-</t>
@@ -4589,13 +4589,13 @@
     <t>Anun</t>
   </si>
   <si>
-    <t>1 ч. 58 мин. 5 сек.</t>
+    <t>1 ч. 58 мин. 05 сек.</t>
   </si>
   <si>
     <t>Locust</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 57 сек.</t>
+    <t>1 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>SlyBeetle</t>
@@ -4634,7 +4634,7 @@
     <t>Себрик</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 4 сек.</t>
+    <t>1 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>karalina</t>
@@ -4655,7 +4655,7 @@
     <t>CTuKEP</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 2 сек.</t>
+    <t>1 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>570</t>
@@ -4682,13 +4682,13 @@
     <t>kosal</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 5 сек.</t>
+    <t>1 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>LANC</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 49 сек.</t>
+    <t>1 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>574–578</t>
@@ -4745,7 +4745,7 @@
     <t>veron9399</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 1 сек.</t>
+    <t>1 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>Мейсон</t>
@@ -4757,7 +4757,7 @@
     <t>sbhx</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 32 сек.</t>
+    <t>2 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>584–585</t>
@@ -4766,13 +4766,13 @@
     <t>keyBoardMan</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 26 сек.</t>
+    <t>1 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 8 сек.</t>
+    <t>2 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>586–590</t>
@@ -4838,7 +4838,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 44 сек.</t>
+    <t>1 ч. 07 мин. 44 сек.</t>
   </si>
   <si>
     <t>electronadin</t>
@@ -4889,7 +4889,7 @@
     <t>rseniy3</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 6 сек.</t>
+    <t>1 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>602–605</t>
@@ -4901,13 +4901,13 @@
     <t>Vsesvet</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 40 сек.</t>
+    <t>1 ч. 07 мин. 40 сек.</t>
   </si>
   <si>
     <t>Oyvse</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 40 сек.</t>
+    <t>1 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>kukhmax</t>
@@ -4934,7 +4934,7 @@
     <t>galileo-job</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 38 сек.</t>
+    <t>1 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>Аферист</t>
@@ -4970,7 +4970,7 @@
     <t>SquirrelFox</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 35 сек.</t>
+    <t>1 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>forsakenwow</t>
@@ -5012,7 +5012,7 @@
     <t>NionNet</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 15 сек.</t>
+    <t>1 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>ktBajun</t>
@@ -5021,7 +5021,7 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 0 сек.</t>
+    <t>1 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>Divrak</t>
@@ -5042,13 +5042,13 @@
     <t>serega__</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 1 сек.</t>
+    <t>0 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>mishlen79</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 26 сек.</t>
+    <t>1 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>enots</t>
@@ -5060,7 +5060,7 @@
     <t>Developer313</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 1 сек.</t>
+    <t>1 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>_VR_</t>
@@ -5078,7 +5078,7 @@
     <t>dosaaf76</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 31 сек.</t>
+    <t>1 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>631</t>
@@ -5096,7 +5096,7 @@
     <t>Импульс</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 0 сек.</t>
+    <t>1 ч. 00 мин. 00 сек.</t>
   </si>
   <si>
     <t>633–637</t>
@@ -5165,7 +5165,7 @@
     <t>dvimster</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 8 сек.</t>
+    <t>1 ч. 20 мин. 08 сек.</t>
   </si>
   <si>
     <t>iPitbull</t>
@@ -5219,7 +5219,7 @@
     <t>Leolex</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 0 сек.</t>
+    <t>1 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>komaz</t>
@@ -5234,7 +5234,7 @@
     <t>Vesna2011</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 31 сек.</t>
+    <t>1 ч. 04 мин. 31 сек.</t>
   </si>
   <si>
     <t>653</t>
@@ -5243,7 +5243,7 @@
     <t>Wantnonick</t>
   </si>
   <si>
-    <t>0 ч. 50 мин. 9 сек.</t>
+    <t>0 ч. 50 мин. 09 сек.</t>
   </si>
   <si>
     <t>654–655</t>
@@ -5267,7 +5267,7 @@
     <t>vladdotac</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 10 сек.</t>
+    <t>1 ч. 07 мин. 10 сек.</t>
   </si>
   <si>
     <t>YaroslavWise</t>
@@ -5276,19 +5276,19 @@
     <t>manfies</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 7 сек.</t>
+    <t>1 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>Aus</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 1 сек.</t>
+    <t>1 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 5 сек.</t>
+    <t>1 ч. 03 мин. 05 сек.</t>
   </si>
   <si>
     <t>Rb7</t>
@@ -5333,19 +5333,19 @@
     <t>Bimbuha</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 3 сек.</t>
+    <t>2 ч. 19 мин. 03 сек.</t>
   </si>
   <si>
     <t>mourieste</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 7 сек.</t>
+    <t>2 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>shdw</t>
   </si>
   <si>
-    <t>0 ч. 39 мин. 4 сек.</t>
+    <t>0 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>razko</t>
@@ -5360,7 +5360,7 @@
     <t>quantum_donchi</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 6 сек.</t>
+    <t>3 ч. 03 мин. 06 сек.</t>
   </si>
   <si>
     <t>slelaron</t>
@@ -5384,7 +5384,7 @@
     <t>gluckss2</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 3 сек.</t>
+    <t>1 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>676–678</t>
@@ -5438,7 +5438,7 @@
     <t>bwp</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 52 сек.</t>
+    <t>1 ч. 04 мин. 52 сек.</t>
   </si>
   <si>
     <t>Poll74</t>
@@ -5459,7 +5459,7 @@
     <t>vic0nt</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 3 сек.</t>
+    <t>0 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>gornostay</t>
@@ -5471,7 +5471,7 @@
     <t>uniko</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 7 сек.</t>
+    <t>1 ч. 11 мин. 07 сек.</t>
   </si>
   <si>
     <t>689–692</t>
@@ -5486,7 +5486,7 @@
     <t>Euki</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 11 сек.</t>
+    <t>1 ч. 07 мин. 11 сек.</t>
   </si>
   <si>
     <t>Coldkenny</t>
@@ -5498,7 +5498,7 @@
     <t>ShavgaStas</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 4 сек.</t>
+    <t>1 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>693–700</t>
@@ -5507,7 +5507,7 @@
     <t>Breakdown</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 23 сек.</t>
+    <t>1 ч. 02 мин. 23 сек.</t>
   </si>
   <si>
     <t>Genius_</t>
@@ -5519,13 +5519,13 @@
     <t>osipetka</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 0 сек.</t>
+    <t>1 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>userbit</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 29 сек.</t>
+    <t>1 ч. 05 мин. 29 сек.</t>
   </si>
   <si>
     <t>pblk</t>
@@ -5567,7 +5567,7 @@
     <t>Misprinter</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 8 сек.</t>
+    <t>1 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>Булава</t>
@@ -5597,7 +5597,7 @@
     <t>Vielle</t>
   </si>
   <si>
-    <t>0 ч. 31 мин. 0 сек.</t>
+    <t>0 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>708–710</t>
@@ -5606,7 +5606,7 @@
     <t>Selica</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 48 сек.</t>
+    <t>1 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>cornelius</t>
@@ -5627,13 +5627,13 @@
     <t>dynairi</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 45 сек.</t>
+    <t>3 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>MilesH</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 46 сек.</t>
+    <t>2 ч. 08 мин. 46 сек.</t>
   </si>
   <si>
     <t>ancv2000</t>
@@ -5666,7 +5666,7 @@
     <t>supertux_038</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 9 сек.</t>
+    <t>1 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>Khasanchik</t>
@@ -5708,7 +5708,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 53 сек.</t>
+    <t>1 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>725–727</t>
@@ -5717,13 +5717,13 @@
     <t>strakhov94</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 49 сек.</t>
+    <t>1 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>Lufik</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 9 сек.</t>
+    <t>3 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>YuriyUs</t>
@@ -5750,7 +5750,7 @@
     <t>madk1nd</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 2 сек.</t>
+    <t>1 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>kozinak</t>
@@ -5768,13 +5768,13 @@
     <t>pmp</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 2 сек.</t>
+    <t>2 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>Zephir</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 4 сек.</t>
+    <t>2 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>ssa774</t>
@@ -5786,7 +5786,7 @@
     <t>felicia_</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 28 сек.</t>
+    <t>1 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>737–738</t>
@@ -5810,7 +5810,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>0 ч. 40 мин. 6 сек.</t>
+    <t>0 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>Skupra</t>
@@ -5837,7 +5837,7 @@
     <t>batkovich</t>
   </si>
   <si>
-    <t>0 ч. 45 мин. 8 сек.</t>
+    <t>0 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>Loyaluna</t>
@@ -5870,7 +5870,7 @@
     <t>romashe</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 39 сек.</t>
+    <t>1 ч. 04 мин. 39 сек.</t>
   </si>
   <si>
     <t>AngelOfDream</t>
@@ -5885,13 +5885,13 @@
     <t>kasiveyser</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 23 сек.</t>
+    <t>1 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>beethoven</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 29 сек.</t>
+    <t>1 ч. 01 мин. 29 сек.</t>
   </si>
   <si>
     <t>752–757</t>
@@ -5924,7 +5924,7 @@
     <t>Engi</t>
   </si>
   <si>
-    <t>1 ч. 17 мин. 2 сек.</t>
+    <t>1 ч. 17 мин. 02 сек.</t>
   </si>
   <si>
     <t>Nataletik</t>
@@ -5945,13 +5945,13 @@
     <t>redaler</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 48 сек.</t>
+    <t>1 ч. 00 мин. 48 сек.</t>
   </si>
   <si>
     <t>Аромат</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 6 сек.</t>
+    <t>0 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>761–764</t>
@@ -5966,7 +5966,7 @@
     <t>Эвольвента</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 6 сек.</t>
+    <t>0 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>кешаня</t>
@@ -6020,7 +6020,7 @@
     <t>Stremer</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 1 сек.</t>
+    <t>1 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>Nafanya_5</t>
@@ -6167,7 +6167,7 @@
     <t>yescast</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 37 сек.</t>
+    <t>1 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>793–797</t>
@@ -6185,7 +6185,7 @@
     <t>visoko</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 49 сек.</t>
+    <t>1 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>artt</t>
@@ -6197,7 +6197,7 @@
     <t>kxinekton</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 0 сек.</t>
+    <t>1 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>798–804</t>
@@ -6209,13 +6209,13 @@
     <t>alexandr-ftf</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 1 сек.</t>
+    <t>1 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>lordoz_vladi</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 54 сек.</t>
+    <t>2 ч. 06 мин. 54 сек.</t>
   </si>
   <si>
     <t>LekcRg</t>
@@ -6233,7 +6233,7 @@
     <t>akaSStalkALEX</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 31 сек.</t>
+    <t>1 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>Ykut</t>
@@ -6260,7 +6260,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 8 сек.</t>
+    <t>1 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>xbit</t>
@@ -6314,13 +6314,13 @@
     <t>St58047</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 3 сек.</t>
+    <t>2 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>Рустамко</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 40 сек.</t>
+    <t>2 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>Detan</t>
@@ -6341,7 +6341,7 @@
     <t>Dany</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 50 сек.</t>
+    <t>1 ч. 01 мин. 50 сек.</t>
   </si>
   <si>
     <t>821–826</t>
@@ -6350,7 +6350,7 @@
     <t>Alexey2</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 1 сек.</t>
+    <t>4 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>AMK_</t>
@@ -6368,7 +6368,7 @@
     <t>драконДьявола</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 7 сек.</t>
+    <t>1 ч. 04 мин. 07 сек.</t>
   </si>
   <si>
     <t>krars</t>
@@ -6401,7 +6401,7 @@
     <t>SmartParkour</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 2 сек.</t>
+    <t>0 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>830–831</t>
@@ -6431,7 +6431,7 @@
     <t>mixalezhnev</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 29 сек.</t>
+    <t>1 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>vinceras</t>
@@ -6443,13 +6443,13 @@
     <t>Sesquipedalian</t>
   </si>
   <si>
-    <t>0 ч. 45 мин. 9 сек.</t>
+    <t>0 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>Пани_Тыковка</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 9 сек.</t>
+    <t>0 ч. 51 мин. 09 сек.</t>
   </si>
   <si>
     <t>837–840</t>
@@ -6458,7 +6458,7 @@
     <t>studyingtaping</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 11 сек.</t>
+    <t>2 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>9999999999</t>
@@ -6476,7 +6476,7 @@
     <t>Вася_</t>
   </si>
   <si>
-    <t>3 ч. 37 мин. 1 сек.</t>
+    <t>3 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>841–846</t>
@@ -6491,7 +6491,7 @@
     <t>Feshchenko</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 2 сек.</t>
+    <t>1 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>zayats410</t>
@@ -6575,7 +6575,7 @@
     <t>nozim</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 6 сек.</t>
+    <t>2 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>petrochen</t>
@@ -6587,7 +6587,7 @@
     <t>Newaton</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 0 сек.</t>
+    <t>1 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>gorjik</t>
@@ -6599,7 +6599,7 @@
     <t>balanenko</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 53 сек.</t>
+    <t>1 ч. 08 мин. 53 сек.</t>
   </si>
   <si>
     <t>860–867</t>
@@ -6614,7 +6614,7 @@
     <t>aliwagner</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 4 сек.</t>
+    <t>1 ч. 40 мин. 04 сек.</t>
   </si>
   <si>
     <t>arhimen</t>
@@ -6626,13 +6626,13 @@
     <t>Gr1nch</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 7 сек.</t>
+    <t>0 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>улиточкаЛ</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 36 сек.</t>
+    <t>2 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>klavowut</t>
@@ -6644,13 +6644,13 @@
     <t>vicusto</t>
   </si>
   <si>
-    <t>2 ч. 28 мин. 0 сек.</t>
+    <t>2 ч. 28 мин. 00 сек.</t>
   </si>
   <si>
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 3 сек.</t>
+    <t>0 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>868–870</t>
@@ -6659,7 +6659,7 @@
     <t>Ferris</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 5 сек.</t>
+    <t>0 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>vitalya199529</t>
@@ -6677,7 +6677,7 @@
     <t>biznesman</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 2 сек.</t>
+    <t>0 ч. 44 мин. 02 сек.</t>
   </si>
   <si>
     <t>McMerphy</t>
@@ -6707,7 +6707,7 @@
     <t>кляпавций</t>
   </si>
   <si>
-    <t>0 ч. 28 мин. 3 сек.</t>
+    <t>0 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>koti-tati</t>
@@ -6728,7 +6728,7 @@
     <t>Wasily</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 16 сек.</t>
+    <t>1 ч. 00 мин. 16 сек.</t>
   </si>
   <si>
     <t>screepa</t>
@@ -6740,7 +6740,7 @@
     <t>Кнопкомет</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 58 сек.</t>
+    <t>1 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>Taypun</t>
@@ -6752,7 +6752,7 @@
     <t>ras2223car</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 9 сек.</t>
+    <t>1 ч. 40 мин. 09 сек.</t>
   </si>
   <si>
     <t>Sensimiliya</t>
@@ -6764,13 +6764,13 @@
     <t>AlexUnder</t>
   </si>
   <si>
-    <t>0 ч. 31 мин. 4 сек.</t>
+    <t>0 ч. 31 мин. 04 сек.</t>
   </si>
   <si>
     <t>ОКейка</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 23 сек.</t>
+    <t>1 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>887–891</t>
@@ -6821,7 +6821,7 @@
     <t>Alexanter-Its</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 2 сек.</t>
+    <t>0 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>BBite</t>
@@ -6839,7 +6839,7 @@
     <t>Мимо_Крокодил</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 24 сек.</t>
+    <t>1 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>898–900</t>
@@ -6854,7 +6854,7 @@
     <t>MMikhotov</t>
   </si>
   <si>
-    <t>0 ч. 41 мин. 6 сек.</t>
+    <t>0 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>buzun</t>
@@ -6893,7 +6893,7 @@
     <t>drago1233</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 44 сек.</t>
+    <t>1 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>jackodiamonds</t>
@@ -6932,7 +6932,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 47 сек.</t>
+    <t>2 ч. 04 мин. 47 сек.</t>
   </si>
   <si>
     <t>912–913</t>
@@ -7001,7 +7001,7 @@
     <t>puma3033</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 4 сек.</t>
+    <t>1 ч. 05 мин. 04 сек.</t>
   </si>
   <si>
     <t>922–928</t>
@@ -7010,7 +7010,7 @@
     <t>CroW1985</t>
   </si>
   <si>
-    <t>0 ч. 40 мин. 1 сек.</t>
+    <t>0 ч. 40 мин. 01 сек.</t>
   </si>
   <si>
     <t>centryfuga</t>
@@ -7028,7 +7028,7 @@
     <t>Миша-Буденновск</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 57 сек.</t>
+    <t>1 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>Квак</t>
@@ -7040,13 +7040,13 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 1 сек.</t>
+    <t>1 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>SpazZm</t>
   </si>
   <si>
-    <t>0 ч. 35 мин. 6 сек.</t>
+    <t>0 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>929–932</t>
@@ -7073,7 +7073,7 @@
     <t>Alington</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 3 сек.</t>
+    <t>0 ч. 46 мин. 03 сек.</t>
   </si>
   <si>
     <t>933</t>
@@ -7082,7 +7082,7 @@
     <t>Argregor</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 2 сек.</t>
+    <t>1 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>934–937</t>
@@ -7163,7 +7163,7 @@
     <t>непотомуль</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 41 сек.</t>
+    <t>1 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>pachenko</t>
@@ -7223,13 +7223,13 @@
     <t>MrFlag</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 0 сек.</t>
+    <t>0 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>KindOf</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 7 сек.</t>
+    <t>0 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>Wandel</t>
@@ -7250,7 +7250,7 @@
     <t>Мач</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 17 сек.</t>
+    <t>1 ч. 07 мин. 17 сек.</t>
   </si>
   <si>
     <t>MMMAAANNN</t>
@@ -7331,7 +7331,7 @@
     <t>fpv_yo</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 5 сек.</t>
+    <t>1 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>7221674</t>
@@ -7352,7 +7352,7 @@
     <t>anania2003</t>
   </si>
   <si>
-    <t>0 ч. 34 мин. 0 сек.</t>
+    <t>0 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>SpeedOfLight</t>
@@ -7370,13 +7370,13 @@
     <t>Русский_топор</t>
   </si>
   <si>
-    <t>0 ч. 39 мин. 3 сек.</t>
+    <t>0 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>potykk</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 5 сек.</t>
+    <t>0 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>default_saimon</t>
@@ -7388,7 +7388,7 @@
     <t>ntfs</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 30 сек.</t>
+    <t>1 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>981–984</t>
@@ -7415,7 +7415,7 @@
     <t>Meteora277</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 42 сек.</t>
+    <t>1 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>985–989</t>
@@ -7430,13 +7430,13 @@
     <t>mynque</t>
   </si>
   <si>
-    <t>0 ч. 25 мин. 9 сек.</t>
+    <t>0 ч. 25 мин. 09 сек.</t>
   </si>
   <si>
     <t>JohnDoe12</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 8 сек.</t>
+    <t>0 ч. 59 мин. 08 сек.</t>
   </si>
   <si>
     <t>angeldeath29</t>
@@ -7457,7 +7457,7 @@
     <t>Anna918</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 49 сек.</t>
+    <t>2 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>stcrash</t>
@@ -7520,7 +7520,7 @@
     <t>Alkhor</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 35 сек.</t>
+    <t>1 ч. 09 мин. 35 сек.</t>
   </si>
   <si>
     <t>VLRNTS</t>
@@ -7547,13 +7547,13 @@
     <t>odto11</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 7 сек.</t>
+    <t>0 ч. 53 мин. 07 сек.</t>
   </si>
   <si>
     <t>Adygha</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 6 сек.</t>
+    <t>0 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>nardist01</t>
@@ -7568,7 +7568,7 @@
     <t>xxl11</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 31 сек.</t>
+    <t>1 ч. 05 мин. 31 сек.</t>
   </si>
   <si>
     <t>zelenzoom</t>
@@ -7577,7 +7577,7 @@
     <t>YE11OW</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 52 сек.</t>
+    <t>1 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>Aliaksandr</t>
@@ -7598,7 +7598,7 @@
     <t>kulinich</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 5 сек.</t>
+    <t>0 ч. 42 мин. 05 сек.</t>
   </si>
   <si>
     <t>shate</t>
@@ -7613,13 +7613,13 @@
     <t>chp0ks</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 3 сек.</t>
+    <t>0 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>getsomeweed</t>
   </si>
   <si>
-    <t>0 ч. 56 мин. 9 сек.</t>
+    <t>0 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>Tahion</t>
@@ -7646,25 +7646,25 @@
     <t>Brgl</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 6 сек.</t>
+    <t>0 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>ivab</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 53 сек.</t>
+    <t>2 ч. 04 мин. 53 сек.</t>
   </si>
   <si>
     <t>Anastasilya</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 58 сек.</t>
+    <t>2 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>AlexPolos</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 6 сек.</t>
+    <t>1 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>13uvarov</t>
@@ -7709,7 +7709,7 @@
     <t>LDNSB</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 34 сек.</t>
+    <t>1 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>lana-banana</t>
@@ -7724,7 +7724,7 @@
     <t>Drayn</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 19 сек.</t>
+    <t>1 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>plyaj519</t>
@@ -7757,7 +7757,7 @@
     <t>Symbo</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 4 сек.</t>
+    <t>0 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>Caterpillar</t>
@@ -7769,7 +7769,7 @@
     <t>chikaldirick</t>
   </si>
   <si>
-    <t>0 ч. 20 мин. 4 сек.</t>
+    <t>0 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>1041–1053</t>
@@ -7799,19 +7799,19 @@
     <t>mypluha</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 26 сек.</t>
+    <t>1 ч. 02 мин. 26 сек.</t>
   </si>
   <si>
     <t>AllMo</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 1 сек.</t>
+    <t>1 ч. 00 мин. 01 сек.</t>
   </si>
   <si>
     <t>Lena19</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 1 сек.</t>
+    <t>0 ч. 44 мин. 01 сек.</t>
   </si>
   <si>
     <t>queezzard</t>
@@ -7829,7 +7829,7 @@
     <t>S0meOne</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 28 сек.</t>
+    <t>1 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>МсМотя</t>
@@ -7841,7 +7841,7 @@
     <t>andreyusamo</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 7 сек.</t>
+    <t>0 ч. 36 мин. 07 сек.</t>
   </si>
   <si>
     <t>ZPMUA</t>
@@ -7859,7 +7859,7 @@
     <t>HudsonHorny</t>
   </si>
   <si>
-    <t>0 ч. 43 мин. 0 сек.</t>
+    <t>0 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>s1ysar</t>
@@ -7889,7 +7889,7 @@
     <t>sh1</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 2 сек.</t>
+    <t>2 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>Kemban</t>
@@ -7979,7 +7979,7 @@
     <t>bronikkk</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 2 сек.</t>
+    <t>0 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>shadymarsh</t>
@@ -8024,7 +8024,7 @@
     <t>mtu</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 20 сек.</t>
+    <t>1 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>Tasko</t>
@@ -8054,7 +8054,7 @@
     <t>fedind</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 4 сек.</t>
+    <t>0 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>1088–1093</t>
@@ -8126,7 +8126,7 @@
     <t>as-83</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 51 сек.</t>
+    <t>2 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>f1re6all</t>
@@ -8138,7 +8138,7 @@
     <t>франс</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 3 сек.</t>
+    <t>1 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>XtrodinarY</t>
@@ -8165,7 +8165,7 @@
     <t>manhunt7</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 8 сек.</t>
+    <t>1 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>simpledimple</t>
@@ -8231,13 +8231,13 @@
     <t>Kentan</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 45 сек.</t>
+    <t>1 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>violence23</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 12 сек.</t>
+    <t>1 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>Garmonica</t>
@@ -8276,7 +8276,7 @@
     <t>Mish0k</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 7 сек.</t>
+    <t>0 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>suffering</t>
@@ -8288,7 +8288,7 @@
     <t>vrv1993</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 9 сек.</t>
+    <t>0 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>Попутчик</t>
